--- a/rtss-mexico/src/main/resources/agriculture/Anuario-Estadístico/production-early.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/Anuario-Estadístico/production-early.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\Anuario-Estadístico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB823F-F623-4A44-8A60-C175FC19437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FC2EB7-4DC3-47C1-9076-21CC785397D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58380" yWindow="540" windowWidth="19620" windowHeight="22020" activeTab="11" xr2:uid="{4D011219-610D-48D0-BCA2-1F7A7958B10A}"/>
+    <workbookView xWindow="58380" yWindow="540" windowWidth="26685" windowHeight="22020" firstSheet="2" activeTab="4" xr2:uid="{4D011219-610D-48D0-BCA2-1F7A7958B10A}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="14">
   <si>
     <t xml:space="preserve">Anuario Estadístico </t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>diff%</t>
+  </si>
+  <si>
+    <t>неверные сведения</t>
   </si>
 </sst>
 </file>
@@ -556,7 +559,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
@@ -800,7 +803,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
@@ -979,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB83B24-36CD-4849-B845-A4137CAF3541}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
@@ -1273,7 +1276,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3"/>
@@ -1399,7 +1402,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1463,7 +1466,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
@@ -1707,7 +1710,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
@@ -1884,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899871DB-058A-400C-8830-CE191349E0EC}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1898,7 +1901,7 @@
     <col min="12" max="12" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1897</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>-6.4128921044625826E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>A2+1</f>
         <v>1898</v>
@@ -2003,9 +2006,9 @@
         <v>-2.8485666701399428E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="4">A3+1</f>
+        <f t="shared" ref="A4:A12" si="4">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
@@ -2040,7 +2043,7 @@
         <v>-2.4124334540499715E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="4"/>
         <v>1900</v>
@@ -2077,7 +2080,7 @@
         <v>0.24041840527686745</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>1901</v>
@@ -2114,7 +2117,7 @@
         <v>-1.3583663665201242E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>1902</v>
@@ -2151,7 +2154,7 @@
         <v>-6.1844651381095073E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>1903</v>
@@ -2188,7 +2191,7 @@
         <v>-2.0450662428630009E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>1904</v>
@@ -2225,7 +2228,7 @@
         <v>-2.4718861864059975E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>1905</v>
@@ -2262,7 +2265,7 @@
         <v>-8.6408542490974804E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>1906</v>
@@ -2299,7 +2302,7 @@
         <v>-2.2031141450575671E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>1907</v>
@@ -2334,6 +2337,9 @@
       <c r="L12">
         <f t="shared" si="3"/>
         <v>-2.7137942492237877E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2470,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="4">A3+1</f>
+        <f t="shared" ref="A4:A12" si="4">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
@@ -2870,7 +2876,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
@@ -3115,7 +3121,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
@@ -3359,7 +3365,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <f t="shared" ref="A4:A12" si="1">A3+1</f>
         <v>1899</v>
       </c>
       <c r="B4" s="3">
